--- a/data/trans_dic/P68-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P68-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1705976065639798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1399737818405689</v>
+        <v>0.1399737818405688</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2148338050147507</v>
@@ -685,7 +685,7 @@
         <v>0.2166279756499054</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1847409741169415</v>
+        <v>0.1847409741169414</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.195156013133725</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1459289934238615</v>
+        <v>0.1436916882726517</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1422264275763496</v>
+        <v>0.1400104979137595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1259902626006204</v>
+        <v>0.1272767124629158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1048707825617329</v>
+        <v>0.104085405843241</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1652261986097995</v>
+        <v>0.1643586927425628</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1737747646602727</v>
+        <v>0.1706716257012629</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1632916547815094</v>
+        <v>0.1612951101898968</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.150324383275629</v>
+        <v>0.1499787496450931</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1642151069015446</v>
+        <v>0.1646435706196491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1643091647959727</v>
+        <v>0.1635586066170618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1569045881988925</v>
+        <v>0.1579284535165638</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1337653574614281</v>
+        <v>0.1369402956059031</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2295303739144023</v>
+        <v>0.2257120340672544</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2351117699613075</v>
+        <v>0.2300190973052403</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2242286951949149</v>
+        <v>0.2207210366765379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1836365840755543</v>
+        <v>0.1778173752745833</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2833437662726244</v>
+        <v>0.2787395708033936</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2957125671260984</v>
+        <v>0.2914201135020627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2819100166099958</v>
+        <v>0.2753254022042689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2225795492181773</v>
+        <v>0.2271606072282126</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2311182170364177</v>
+        <v>0.2304810471738228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2387088224641132</v>
+        <v>0.2404681468181199</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2359815697708421</v>
+        <v>0.2296572057279086</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1889803974866808</v>
+        <v>0.1876595475793082</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1112300568382437</v>
+        <v>0.1150485069605262</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1035963144666011</v>
+        <v>0.10386976620017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08471506269063393</v>
+        <v>0.08495895602826287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1240823104074313</v>
+        <v>0.1249439659989215</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1348833786568256</v>
+        <v>0.1302056149475607</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1032245595526203</v>
+        <v>0.1090430459578128</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1071410876176892</v>
+        <v>0.1040154560326345</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1359020489701915</v>
+        <v>0.1312164650556589</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1342810474541098</v>
+        <v>0.1377601822453177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1161956122981652</v>
+        <v>0.1152497745575126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.103770808046039</v>
+        <v>0.1057422820008717</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1404625018950346</v>
+        <v>0.1383653931413278</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.213625521508382</v>
+        <v>0.2096457920004233</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.193638302761015</v>
+        <v>0.1989966996946222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1739885604405723</v>
+        <v>0.1714580605528326</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2139686476598678</v>
+        <v>0.2205991729207086</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2340348492075545</v>
+        <v>0.2320938641817014</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2287336281996145</v>
+        <v>0.2288449156816368</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2133408366939796</v>
+        <v>0.2162783923094551</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2183452576612383</v>
+        <v>0.2123960696190594</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2037628974686371</v>
+        <v>0.204160527335654</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1922365797350548</v>
+        <v>0.1890789716099728</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1751226184086545</v>
+        <v>0.176167371752263</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2032406256950232</v>
+        <v>0.2042479157138803</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3085930295692238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2310350672179781</v>
+        <v>0.231035067217978</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2911758376516981</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2213405807861921</v>
+        <v>0.2193651216323881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2325429758720364</v>
+        <v>0.2376231929088993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2490647334387137</v>
+        <v>0.2477537058230552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1821122335343292</v>
+        <v>0.17912361731644</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1817743170227539</v>
+        <v>0.1814092151970794</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.209557863478945</v>
+        <v>0.2301772256836552</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0726296596897678</v>
+        <v>0.07007981792977243</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1792651040629716</v>
+        <v>0.1804957619483729</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2265497030744099</v>
+        <v>0.2282275029456859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2468456259790803</v>
+        <v>0.2467745192567233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2146546996320999</v>
+        <v>0.2147133961221636</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1890867241360488</v>
+        <v>0.1922772866072298</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3139408492998534</v>
+        <v>0.3169612481783348</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3435227228176366</v>
+        <v>0.343677366477993</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3722376892371458</v>
+        <v>0.3704065055355161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2911145699534661</v>
+        <v>0.2983091019525628</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4311000263476225</v>
+        <v>0.4346526435589357</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3942173723498096</v>
+        <v>0.4056417523025144</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2574269950753259</v>
+        <v>0.2624733276211913</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.349456042234237</v>
+        <v>0.3425416432745121</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3128875455592209</v>
+        <v>0.3188351661276982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3394534829261539</v>
+        <v>0.3388762391972407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3243878341453507</v>
+        <v>0.3335065744404913</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2850248001850118</v>
+        <v>0.2954744256137859</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2496610796337616</v>
+        <v>0.2552474385003547</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2385304020206068</v>
+        <v>0.2416099433625897</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2440694367215446</v>
+        <v>0.2469753471565699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2112135471801209</v>
+        <v>0.2136110640204767</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1260057384556851</v>
+        <v>0.1263130722246394</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1848829278141127</v>
+        <v>0.1790542861048148</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1900803821966114</v>
+        <v>0.1872720550321434</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2085645181935456</v>
+        <v>0.2114206596137493</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2257843101952049</v>
+        <v>0.2227033611325236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2239365532131274</v>
+        <v>0.2257156720479342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2327371817365026</v>
+        <v>0.2303836126154106</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2194724483812156</v>
+        <v>0.2193306383497347</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3220573503418615</v>
+        <v>0.318315354856275</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3304633582378892</v>
+        <v>0.326084525617872</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.326654201081683</v>
+        <v>0.3279889691391422</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2911455067367181</v>
+        <v>0.293565160884499</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.208367949823425</v>
+        <v>0.2103255881930907</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2826551763834602</v>
+        <v>0.2787106756951837</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2776055967896751</v>
+        <v>0.2790113350017502</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2765845747581759</v>
+        <v>0.2767371063960006</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.277458674395144</v>
+        <v>0.279808538878341</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2916197323559909</v>
+        <v>0.2925381995356078</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2926475023671852</v>
+        <v>0.2905695506331794</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2754894391375892</v>
+        <v>0.2742445299111431</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2406838024545757</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3322735833839459</v>
+        <v>0.3322735833839458</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.331042922342505</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2812977402935759</v>
+        <v>0.2756728847553436</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1910632514687333</v>
+        <v>0.1911265358413738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2879854740523574</v>
+        <v>0.2857810306508293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1682556703842972</v>
+        <v>0.16159729903209</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2526480245338252</v>
+        <v>0.2468859744759518</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1869023532071432</v>
+        <v>0.1847404442095313</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1804646721464077</v>
+        <v>0.1844587368979608</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2870125083508879</v>
+        <v>0.282562767924755</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2834389921051355</v>
+        <v>0.2875284606819969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2066068198385486</v>
+        <v>0.2087387575775221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2543434966336918</v>
+        <v>0.2505851925397476</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2357656256152932</v>
+        <v>0.2395837585360411</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4235900025590423</v>
+        <v>0.4225150963898487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3406801359323947</v>
+        <v>0.3439392900041979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4296400356784231</v>
+        <v>0.4253245685326345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2732369150734679</v>
+        <v>0.2672258970961973</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3832665354183937</v>
+        <v>0.3830690461943196</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3247736091483263</v>
+        <v>0.3246124801499172</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.302140433011534</v>
+        <v>0.3038819088763677</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3798696205106509</v>
+        <v>0.3800467780392698</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3784382690417807</v>
+        <v>0.3839876564967022</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3085753198084421</v>
+        <v>0.3082308559055596</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3460407457834848</v>
+        <v>0.3430187431267501</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3075802001676962</v>
+        <v>0.3154535634259192</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2108347293379821</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2351753946542943</v>
+        <v>0.2351753946542942</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2382579875596775</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2297934067652063</v>
+        <v>0.2290298407412494</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1867499688659401</v>
+        <v>0.1856170521240713</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1849704999196363</v>
+        <v>0.1852637635286398</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2155695479819492</v>
+        <v>0.213703470586668</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2245668615005333</v>
+        <v>0.2231448312182819</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2148508409088964</v>
+        <v>0.2153902718036591</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2048988892768425</v>
+        <v>0.2052025184695142</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2716682435184681</v>
+        <v>0.2692394210912512</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2298689128701989</v>
+        <v>0.2257594934279232</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2376129450512442</v>
+        <v>0.2395502644103127</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2550824126808386</v>
+        <v>0.2548888279081022</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2553737906548305</v>
+        <v>0.2542228563777044</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2489891147948954</v>
+        <v>0.2517166921733147</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.23507002510862</v>
+        <v>0.2332610642770989</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>51861</v>
+        <v>51066</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43067</v>
+        <v>42396</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34645</v>
+        <v>34999</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38333</v>
+        <v>38046</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35878</v>
+        <v>35690</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33784</v>
+        <v>33181</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34625</v>
+        <v>34201</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49752</v>
+        <v>49637</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>94018</v>
+        <v>94264</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>81697</v>
+        <v>81324</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>76416</v>
+        <v>76915</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93166</v>
+        <v>95377</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81572</v>
+        <v>80215</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71193</v>
+        <v>69650</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61659</v>
+        <v>60694</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67124</v>
+        <v>64997</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>61526</v>
+        <v>60527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>57491</v>
+        <v>56656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>59776</v>
+        <v>58380</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>73665</v>
+        <v>75182</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>132322</v>
+        <v>131958</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>118690</v>
+        <v>119565</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>114928</v>
+        <v>111848</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>131622</v>
+        <v>130702</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30016</v>
+        <v>31047</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26679</v>
+        <v>26750</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20528</v>
+        <v>20587</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39012</v>
+        <v>39283</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31413</v>
+        <v>30324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17242</v>
+        <v>18214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>20168</v>
+        <v>19579</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>36382</v>
+        <v>35128</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>67510</v>
+        <v>69259</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49333</v>
+        <v>48931</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>44678</v>
+        <v>45527</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>81765</v>
+        <v>80545</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>57649</v>
+        <v>56575</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49868</v>
+        <v>51248</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42160</v>
+        <v>41547</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>67273</v>
+        <v>69357</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54504</v>
+        <v>54052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38207</v>
+        <v>38225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40158</v>
+        <v>40711</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>58453</v>
+        <v>56861</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>102442</v>
+        <v>102642</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>81617</v>
+        <v>80277</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>75399</v>
+        <v>75849</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>118309</v>
+        <v>118896</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83639</v>
+        <v>82893</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65249</v>
+        <v>66675</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>53233</v>
+        <v>52953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48465</v>
+        <v>47670</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10168</v>
+        <v>10147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>22998</v>
+        <v>25261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4729</v>
+        <v>4563</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14261</v>
+        <v>14359</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>98280</v>
+        <v>99007</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>96353</v>
+        <v>96325</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>59856</v>
+        <v>59873</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>65363</v>
+        <v>66466</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>118630</v>
+        <v>119772</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>96389</v>
+        <v>96432</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>79559</v>
+        <v>79168</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>77474</v>
+        <v>79389</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24114</v>
+        <v>24312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43264</v>
+        <v>44518</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16763</v>
+        <v>17092</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27800</v>
+        <v>27250</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>135734</v>
+        <v>138314</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>132501</v>
+        <v>132276</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>90456</v>
+        <v>92998</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>98527</v>
+        <v>102139</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>174478</v>
+        <v>178382</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>100630</v>
+        <v>101929</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>117470</v>
+        <v>118869</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>128416</v>
+        <v>129874</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>38208</v>
+        <v>38301</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>55632</v>
+        <v>53879</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>69169</v>
+        <v>68148</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>97556</v>
+        <v>98892</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>226254</v>
+        <v>223167</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>161858</v>
+        <v>163143</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>196708</v>
+        <v>194719</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>236096</v>
+        <v>235943</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>225072</v>
+        <v>222457</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>139415</v>
+        <v>137567</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157218</v>
+        <v>157861</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>177014</v>
+        <v>178485</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63182</v>
+        <v>63776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>85053</v>
+        <v>83866</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101020</v>
+        <v>101531</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>129373</v>
+        <v>129444</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>278036</v>
+        <v>280391</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>210778</v>
+        <v>211442</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>247344</v>
+        <v>245588</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>296356</v>
+        <v>295017</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51459</v>
+        <v>50430</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29211</v>
+        <v>29221</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>55300</v>
+        <v>54877</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>50840</v>
+        <v>48828</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>52715</v>
+        <v>51513</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>32479</v>
+        <v>32103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35483</v>
+        <v>36269</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>86476</v>
+        <v>85135</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>110991</v>
+        <v>112592</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>67491</v>
+        <v>68187</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>98850</v>
+        <v>97389</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>142273</v>
+        <v>144578</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77490</v>
+        <v>77293</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>52086</v>
+        <v>52584</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>82502</v>
+        <v>81673</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82560</v>
+        <v>80744</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>79969</v>
+        <v>79928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>56438</v>
+        <v>56410</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>59407</v>
+        <v>59750</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>114453</v>
+        <v>114507</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>148192</v>
+        <v>150365</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>100800</v>
+        <v>100688</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>134488</v>
+        <v>133313</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>185610</v>
+        <v>190361</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>433141</v>
+        <v>431702</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>346646</v>
+        <v>344543</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>189763</v>
+        <v>190064</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>311988</v>
+        <v>309287</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>651863</v>
+        <v>647735</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>522144</v>
+        <v>523455</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>676879</v>
+        <v>677882</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>512072</v>
+        <v>507493</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>426684</v>
+        <v>419056</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>243770</v>
+        <v>245757</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>369173</v>
+        <v>368893</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>741288</v>
+        <v>737947</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>605109</v>
+        <v>611738</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>776549</v>
+        <v>770573</v>
       </c>
     </row>
     <row r="28">
